--- a/downloaded_files/EPES125_Tutorial-35328.xlsx
+++ b/downloaded_files/EPES125_Tutorial-35328.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>Hassan Elmessary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ريتاج حسين محمود حسين عمران</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Retaj hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1230321</x:t>
@@ -281,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -832,7 +823,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45913.7052414005</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -860,11 +851,9 @@
       <x:c r="C8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45912.6685261227</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -887,14 +876,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45912.6685261227</x:v>
+        <x:v>45912.6921194792</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -922,11 +913,9 @@
       <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
+      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45912.6921194792</x:v>
+        <x:v>45912.6671443634</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -949,14 +938,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45912.6671443634</x:v>
+        <x:v>45912.6643030903</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -979,14 +968,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45912.6643030903</x:v>
+        <x:v>45912.6689260764</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1018,7 +1009,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.6689260764</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1050,7 +1041,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4206368403</x:v>
+        <x:v>45909.4149851042</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1082,7 +1073,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4149851042</x:v>
+        <x:v>45906.6654133102</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1114,7 +1105,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6654133102</x:v>
+        <x:v>45912.6811705208</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1131,38 +1122,6 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20">
-      <x:c r="A17" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E17" s="3">
-        <x:v>45912.6811705208</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s"/>
-      <x:c r="G17" s="2" t="s"/>
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="2" t="s"/>
-      <x:c r="K17" s="2" t="s"/>
-      <x:c r="L17" s="2" t="s"/>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="2" t="s"/>
-      <x:c r="Q17" s="2" t="s"/>
-      <x:c r="R17" s="2" t="s"/>
-      <x:c r="S17" s="2" t="s"/>
-      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES125_Tutorial-35328.xlsx
+++ b/downloaded_files/EPES125_Tutorial-35328.xlsx
@@ -117,10 +117,10 @@
     <x:t>1230226</x:t>
   </x:si>
   <x:si>
-    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Tarek Abdalla</x:t>
+    <x:t>كريم طارق عبد الله عبد الحليم عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Tarek Abdullah Abdelhalim Abdelmonem</x:t>
   </x:si>
   <x:si>
     <x:t>1220139</x:t>
@@ -581,7 +581,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.450625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.250625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/EPES125_Tutorial-35328.xlsx
+++ b/downloaded_files/EPES125_Tutorial-35328.xlsx
@@ -39,7 +39,7 @@
     <x:t>أحمد محمد سيد صابر محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Sayed Saber</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Sayed Saber Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1230313</x:t>
